--- a/output/future_state_estimates_safari.xlsx
+++ b/output/future_state_estimates_safari.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Asking for verbal consent is a straightforward interaction but requires clear communication and confirmation from the customer. Considering similar customer interaction activities like requesting ID (14.55 seconds) and the need for staff to ensure understanding and consent, this activity would likely take around 15 seconds. This accounts for potential delays in customer understanding or needing to repeat the request due to language barriers or technical infrastructure limitations.</t>
+          <t>Asking for verbal consent is similar to requesting ID or issuing a receipt, which involves direct interaction with the customer. Considering the need for clear communication and potential customer queries, this activity might take slightly longer than issuing a receipt but less than reviewing an ID. Given the technical infrastructure limitations and the need for staff to ensure the customer fully understands the consent process, this could realistically take around 15 seconds.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -520,7 +520,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>This activity would take approximately 15 seconds because it is similar to "Request ID from the applicant," which takes about 14.55 seconds. Considering the technical infrastructure limitations in Ethiopia, staff training needs, and potential customer interaction time, a slight increase is accounted for potential delays or retries.</t>
+          <t>Requesting a FIN ID from the applicant is similar to requesting an ID, which takes approximately 14.55 seconds. Considering the technical infrastructure in Ethiopia, staff training, and potential customer interaction time, a slight increase to 15 seconds accounts for any minor delays or retries that might occur during the process.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Scanning a FIN QR code is similar to scanning the unique barcode on a SIM card, which takes approximately 23.4 seconds. However, QR code scanning is generally faster due to its widespread use and familiarity among staff, reducing the need for extensive training. Considering the technical infrastructure in Ethiopia, which may not be as advanced as in other regions, and potential customer interaction time, a slight delay might occur. Therefore, accounting for these factors, the estimated time for scanning a FIN QR code would be around 15 seconds.</t>
+          <t>This activity would take approximately 15 seconds because scanning a QR code is generally a quick process similar to scanning a barcode, which takes about 23.4 seconds in the current process. However, QR codes are typically faster to scan than barcodes. Considering the technical infrastructure limitations in Ethiopia, potential staff training needs, and customer interaction time, a slightly reduced time is estimated. Additionally, potential delays or retries are accounted for, but are expected to be minimal due to the straightforward nature of QR code scanning.</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>This activity would take approximately 45 seconds because it is similar to the "Fill data into EKYC System" activity, which takes 53.59 seconds. Given the technical infrastructure limitations in Ethiopia, such as slower internet speeds and potential system lags, the time could be slightly reduced as this is an additional data entry task, not the initial comprehensive data entry. Staff training and familiarity with the EKYC system would help streamline the process, but customer interaction and potential retries due to data entry errors or system issues could still cause minor delays.</t>
+          <t>This activity would take approximately 45 seconds because it is similar to the "Fill data into EKYC System" activity, which takes 53.59 seconds. Considering the technical infrastructure limitations in Ethiopia, staff training needs, and potential customer interaction time, the process might be slightly faster due to familiarity with the system but still requires significant time for accuracy and potential retries.</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -596,11 +596,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Linking the unique barcode on the SIM card with the FIN is a technical task that involves scanning and data entry, similar to scanning the barcode on the SIM card, which takes 23.4 seconds. Considering the technical infrastructure limitations in Ethiopia, potential delays, and the need for staff to ensure accuracy in linking the barcode with the FIN, an additional buffer time is necessary. This accounts for any potential retries or customer interaction required to confirm details, leading to an estimated processing time of 30 seconds.</t>
+          <t>Linking the unique barcode on the SIM card with the FIN is a straightforward technical task similar to scanning the barcode on the SIM card, which takes about 23.4 seconds. However, this new activity might be slightly quicker as it involves linking rather than scanning. Considering the technical infrastructure limitations in Ethiopia, potential staff training needs, and customer interaction time, this task could be completed in approximately 15 seconds. This estimate accounts for potential delays or retries due to system lags or errors.</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
